--- a/results/mp/logistic/corona/confidence/168/0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,15 @@
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -67,15 +67,15 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -88,22 +88,28 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
@@ -112,57 +118,51 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -172,37 +172,31 @@
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -560,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +647,13 @@
         <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5490196078431373</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4406779661016949</v>
+        <v>0.4708994708994709</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4338624338624338</v>
+        <v>0.4437984496124031</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4302325581395349</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C7">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3422818791946309</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K8">
-        <v>0.856020942408377</v>
+        <v>0.8407310704960835</v>
       </c>
       <c r="L8">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M8">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2305555555555556</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.130952380952381</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09115281501340483</v>
+        <v>0.08579088471849866</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K11">
-        <v>0.7948717948717948</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,37 +1073,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01986754966887417</v>
+        <v>0.01751540707103471</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E12">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="F12">
-        <v>0.5900000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2072</v>
+        <v>3029</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,37 +1123,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01972195279663757</v>
+        <v>0.01440677966101695</v>
       </c>
       <c r="C13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="F13">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3032</v>
+        <v>2326</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.80625</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1179,37 +1173,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01445578231292517</v>
+        <v>0.01367279585101367</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F14">
-        <v>0.5600000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2318</v>
+        <v>2092</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K14">
-        <v>0.765625</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,37 +1223,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01060278814058512</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E15">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="F15">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>5039</v>
+        <v>5037</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,37 +1273,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007248071077858312</v>
+        <v>0.006778868630201029</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E16">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F16">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>4246</v>
+        <v>4249</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007103714227724781</v>
+        <v>0.006106248727864848</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E17">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="F17">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>4892</v>
+        <v>4883</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K17">
-        <v>0.74375</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1373,13 @@
         <v>39</v>
       </c>
       <c r="K18">
-        <v>0.74</v>
+        <v>0.765625</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1405,13 +1399,13 @@
         <v>40</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1431,13 +1425,13 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1457,13 +1451,13 @@
         <v>42</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1483,13 +1477,13 @@
         <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6976744186046512</v>
+        <v>0.675</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1509,13 +1503,13 @@
         <v>44</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1535,13 +1529,13 @@
         <v>45</v>
       </c>
       <c r="K24">
-        <v>0.6323529411764706</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L24">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="M24">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1561,13 +1555,13 @@
         <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6234309623430963</v>
+        <v>0.6192468619246861</v>
       </c>
       <c r="L25">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M25">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1587,25 +1581,25 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>0.6109215017064846</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1613,25 +1607,25 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5851063829787234</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1639,13 +1633,13 @@
         <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5692307692307692</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1665,13 +1659,13 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1691,13 +1685,13 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>0.4719101123595505</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1709,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1717,13 +1711,13 @@
         <v>52</v>
       </c>
       <c r="K31">
-        <v>0.3846153846153846</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1735,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1743,13 +1737,13 @@
         <v>53</v>
       </c>
       <c r="K32">
-        <v>0.3698630136986301</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1761,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1769,25 +1763,25 @@
         <v>54</v>
       </c>
       <c r="K33">
-        <v>0.05695142378559464</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="L33">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N33">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1795,25 +1789,25 @@
         <v>55</v>
       </c>
       <c r="K34">
-        <v>0.0327683615819209</v>
+        <v>0.03549695740365112</v>
       </c>
       <c r="L34">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="O34">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2568</v>
+        <v>951</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1821,13 +1815,13 @@
         <v>56</v>
       </c>
       <c r="K35">
-        <v>0.02738336713995943</v>
+        <v>0.02700096432015429</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>0.9</v>
@@ -1839,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>959</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1847,13 +1841,13 @@
         <v>57</v>
       </c>
       <c r="K36">
-        <v>0.0213903743315508</v>
+        <v>0.02258185923974407</v>
       </c>
       <c r="L36">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N36">
         <v>0.79</v>
@@ -1865,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2379</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1873,25 +1867,25 @@
         <v>58</v>
       </c>
       <c r="K37">
-        <v>0.01919446192573946</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="L37">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M37">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="N37">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="O37">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3117</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1899,51 +1893,51 @@
         <v>59</v>
       </c>
       <c r="K38">
-        <v>0.01641414141414142</v>
+        <v>0.01883633319380494</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N38">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="O38">
-        <v>0.28</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1558</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.01408726276658188</v>
+        <v>0.01822752985543683</v>
       </c>
       <c r="L39">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M39">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="N39">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="O39">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>5039</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1951,181 +1945,77 @@
         <v>22</v>
       </c>
       <c r="K40">
-        <v>0.01390848619229994</v>
+        <v>0.01671365283930729</v>
       </c>
       <c r="L40">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="M40">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N40">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="O40">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4892</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K41">
-        <v>0.01384228187919463</v>
+        <v>0.01601875366282477</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="N41">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="O41">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2351</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K42">
-        <v>0.01380295097572585</v>
+        <v>0.01163061177017911</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M42">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N42">
-        <v>0.41</v>
+        <v>0.63</v>
       </c>
       <c r="O42">
-        <v>0.5900000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K43">
-        <v>0.01303538175046555</v>
-      </c>
-      <c r="L43">
-        <v>28</v>
-      </c>
-      <c r="M43">
-        <v>38</v>
-      </c>
-      <c r="N43">
-        <v>0.74</v>
-      </c>
-      <c r="O43">
-        <v>0.26</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44">
-        <v>0.01223241590214067</v>
-      </c>
-      <c r="L44">
-        <v>28</v>
-      </c>
-      <c r="M44">
-        <v>48</v>
-      </c>
-      <c r="N44">
-        <v>0.58</v>
-      </c>
-      <c r="O44">
-        <v>0.42</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45">
-        <v>0.01186874563649058</v>
-      </c>
-      <c r="L45">
-        <v>51</v>
-      </c>
-      <c r="M45">
-        <v>82</v>
-      </c>
-      <c r="N45">
-        <v>0.62</v>
-      </c>
-      <c r="O45">
-        <v>0.38</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46">
-        <v>0.0115138592750533</v>
-      </c>
-      <c r="L46">
-        <v>27</v>
-      </c>
-      <c r="M46">
-        <v>61</v>
-      </c>
-      <c r="N46">
-        <v>0.44</v>
-      </c>
-      <c r="O46">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>2318</v>
+        <v>4249</v>
       </c>
     </row>
   </sheetData>
